--- a/public/stories/188_965799206_2017.xlsx
+++ b/public/stories/188_965799206_2017.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="105">
   <si>
     <t>F1887</t>
   </si>
@@ -33,7 +33,7 @@
     <t>FOLIO</t>
   </si>
   <si>
-    <t>0000009</t>
+    <t>0000010</t>
   </si>
   <si>
     <t>AÑO TRIBUTARIO AÑO</t>
@@ -150,40 +150,25 @@
     <t>DIC</t>
   </si>
   <si>
-    <t>23.152.765-6</t>
+    <t>6.443.121-8</t>
   </si>
   <si>
-    <t>$14.425.638</t>
+    <t>$11.395.117</t>
   </si>
   <si>
-    <t>$2.900.944</t>
+    <t>$1.803.756</t>
   </si>
   <si>
     <t>$0</t>
   </si>
   <si>
-    <t>$4.034.910</t>
+    <t>$3.013.200</t>
   </si>
   <si>
     <t>X</t>
   </si>
   <si>
-    <t>0000055</t>
-  </si>
-  <si>
-    <t>8.554.796-8</t>
-  </si>
-  <si>
-    <t>$13.012.459</t>
-  </si>
-  <si>
-    <t>$2.367.911</t>
-  </si>
-  <si>
-    <t>$1.661.712</t>
-  </si>
-  <si>
-    <t>0000056</t>
+    <t>0000060</t>
   </si>
   <si>
     <t>10.273.278-2</t>
@@ -198,19 +183,7 @@
     <t>$1.804.800</t>
   </si>
   <si>
-    <t>0000057</t>
-  </si>
-  <si>
-    <t>10.407.874-5</t>
-  </si>
-  <si>
-    <t>$19.540.400</t>
-  </si>
-  <si>
-    <t>$3.557.304</t>
-  </si>
-  <si>
-    <t>0000058</t>
+    <t>0000069</t>
   </si>
   <si>
     <t>7.771.081-7</t>
@@ -225,22 +198,28 @@
     <t>$682.720</t>
   </si>
   <si>
-    <t>0000059</t>
+    <t>0000085</t>
   </si>
   <si>
-    <t>6.443.121-8</t>
+    <t>16.945.060-9</t>
   </si>
   <si>
-    <t>$11.395.117</t>
+    <t>$999.119</t>
   </si>
   <si>
-    <t>$1.803.756</t>
+    <t>0000088</t>
   </si>
   <si>
-    <t>$3.013.200</t>
+    <t>10.407.874-5</t>
   </si>
   <si>
-    <t>0000060</t>
+    <t>$19.540.400</t>
+  </si>
+  <si>
+    <t>$3.557.304</t>
+  </si>
+  <si>
+    <t>0000094</t>
   </si>
   <si>
     <t>15.378.762-K</t>
@@ -255,16 +234,49 @@
     <t>$457.579.052</t>
   </si>
   <si>
-    <t>0000061</t>
+    <t>0000096</t>
   </si>
   <si>
-    <t>16.945.060-9</t>
+    <t>23.152.765-6</t>
   </si>
   <si>
-    <t>$999.119</t>
+    <t>$14.425.638</t>
   </si>
   <si>
-    <t>0000062</t>
+    <t>$2.900.944</t>
+  </si>
+  <si>
+    <t>$4.034.910</t>
+  </si>
+  <si>
+    <t>0000098</t>
+  </si>
+  <si>
+    <t>8.676.641-8</t>
+  </si>
+  <si>
+    <t>$3.338.812</t>
+  </si>
+  <si>
+    <t>$244.126</t>
+  </si>
+  <si>
+    <t>$604.200</t>
+  </si>
+  <si>
+    <t>0000100</t>
+  </si>
+  <si>
+    <t>8.554.796-8</t>
+  </si>
+  <si>
+    <t>$3</t>
+  </si>
+  <si>
+    <t>$2.432.185</t>
+  </si>
+  <si>
+    <t>0000101</t>
   </si>
   <si>
     <t>TOTAL MONTOS ANUALES SIN ACTUALIZAR</t>
@@ -282,16 +294,16 @@
     <t>POR RENTAS ACCESORIAS Y/O COMPLEMENTARIA PAGADA ENTRE ENE-ABR. AÑO SGTE.</t>
   </si>
   <si>
-    <t>$96.596.220</t>
+    <t>$86.952.368</t>
   </si>
   <si>
-    <t>$17.424.530</t>
+    <t>$15.308.887</t>
   </si>
   <si>
-    <t>$470.085.639</t>
+    <t>$471.456.057</t>
   </si>
   <si>
-    <t>$105.982.043</t>
+    <t>$96.291.569</t>
   </si>
   <si>
     <t>CUADRO RESUMEN FINAL DE LA DECLARACIÓN</t>
@@ -309,13 +321,13 @@
     <t>RENTA TOTAL EXENTA Y NO GRAVADA</t>
   </si>
   <si>
-    <t>$96.943.558</t>
+    <t>$87.269.914</t>
   </si>
   <si>
-    <t>$17.488.819</t>
+    <t>$15.365.034</t>
   </si>
   <si>
-    <t>$470.581.194</t>
+    <t>$471.955.867</t>
   </si>
   <si>
     <t>DECLARO BAJO JURAMENTO QUE LOS DATOS CONTENIDOS EN EL PRESENTE DOCUMENTO SON LA EXPRESION FIEL DE LA VERDAD, POR LO QUE ASUMO LA RESPONSABILIDAD</t>
@@ -594,7 +606,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -906,6 +918,9 @@
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -2542,7 +2557,9 @@
       <c r="BJ21" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="BK21" s="101"/>
+      <c r="BK21" s="101" t="s">
+        <v>48</v>
+      </c>
       <c r="BL21" s="100" t="s">
         <v>49</v>
       </c>
@@ -2661,7 +2678,9 @@
       <c r="BJ22" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="BK22" s="101"/>
+      <c r="BK22" s="101" t="s">
+        <v>48</v>
+      </c>
       <c r="BL22" s="100" t="s">
         <v>54</v>
       </c>
@@ -2780,9 +2799,7 @@
       <c r="BJ23" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="BK23" s="101" t="s">
-        <v>48</v>
-      </c>
+      <c r="BK23" s="101"/>
       <c r="BL23" s="100" t="s">
         <v>59</v>
       </c>
@@ -2843,7 +2860,7 @@
       <c r="P24" s="100"/>
       <c r="Q24" s="100"/>
       <c r="R24" s="100" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="S24" s="100"/>
       <c r="T24" s="100"/>
@@ -2862,7 +2879,7 @@
       <c r="AE24" s="100"/>
       <c r="AF24" s="100"/>
       <c r="AG24" s="100" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="AH24" s="100"/>
       <c r="AI24" s="100"/>
@@ -2895,9 +2912,7 @@
       <c r="BF24" s="101"/>
       <c r="BG24" s="101"/>
       <c r="BH24" s="101"/>
-      <c r="BI24" s="101" t="s">
-        <v>48</v>
-      </c>
+      <c r="BI24" s="101"/>
       <c r="BJ24" s="101" t="s">
         <v>48</v>
       </c>
@@ -2905,7 +2920,7 @@
         <v>48</v>
       </c>
       <c r="BL24" s="100" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="BM24" s="100"/>
       <c r="BN24" s="100"/>
@@ -2946,7 +2961,7 @@
       </c>
       <c r="C25" s="100"/>
       <c r="D25" s="100" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E25" s="100"/>
       <c r="F25" s="100"/>
@@ -2955,7 +2970,7 @@
       <c r="I25" s="100"/>
       <c r="J25" s="100"/>
       <c r="K25" s="100" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L25" s="100"/>
       <c r="M25" s="100"/>
@@ -2964,7 +2979,7 @@
       <c r="P25" s="100"/>
       <c r="Q25" s="100"/>
       <c r="R25" s="100" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S25" s="100"/>
       <c r="T25" s="100"/>
@@ -2983,7 +2998,7 @@
       <c r="AE25" s="100"/>
       <c r="AF25" s="100"/>
       <c r="AG25" s="100" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="AH25" s="100"/>
       <c r="AI25" s="100"/>
@@ -3022,9 +3037,11 @@
       <c r="BJ25" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="BK25" s="101"/>
+      <c r="BK25" s="101" t="s">
+        <v>48</v>
+      </c>
       <c r="BL25" s="100" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BM25" s="100"/>
       <c r="BN25" s="100"/>
@@ -3065,7 +3082,7 @@
       </c>
       <c r="C26" s="100"/>
       <c r="D26" s="100" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E26" s="100"/>
       <c r="F26" s="100"/>
@@ -3074,7 +3091,7 @@
       <c r="I26" s="100"/>
       <c r="J26" s="100"/>
       <c r="K26" s="100" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L26" s="100"/>
       <c r="M26" s="100"/>
@@ -3083,7 +3100,7 @@
       <c r="P26" s="100"/>
       <c r="Q26" s="100"/>
       <c r="R26" s="100" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="S26" s="100"/>
       <c r="T26" s="100"/>
@@ -3102,7 +3119,7 @@
       <c r="AE26" s="100"/>
       <c r="AF26" s="100"/>
       <c r="AG26" s="100" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AH26" s="100"/>
       <c r="AI26" s="100"/>
@@ -3145,7 +3162,7 @@
         <v>48</v>
       </c>
       <c r="BL26" s="100" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="BM26" s="100"/>
       <c r="BN26" s="100"/>
@@ -3168,7 +3185,7 @@
       </c>
       <c r="C27" s="100"/>
       <c r="D27" s="100" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E27" s="100"/>
       <c r="F27" s="100"/>
@@ -3177,7 +3194,7 @@
       <c r="I27" s="100"/>
       <c r="J27" s="100"/>
       <c r="K27" s="100" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L27" s="100"/>
       <c r="M27" s="100"/>
@@ -3186,7 +3203,7 @@
       <c r="P27" s="100"/>
       <c r="Q27" s="100"/>
       <c r="R27" s="100" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="S27" s="100"/>
       <c r="T27" s="100"/>
@@ -3205,7 +3222,7 @@
       <c r="AE27" s="100"/>
       <c r="AF27" s="100"/>
       <c r="AG27" s="100" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AH27" s="100"/>
       <c r="AI27" s="100"/>
@@ -3244,11 +3261,9 @@
       <c r="BJ27" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="BK27" s="101" t="s">
-        <v>48</v>
-      </c>
+      <c r="BK27" s="101"/>
       <c r="BL27" s="100" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BM27" s="100"/>
       <c r="BN27" s="100"/>
@@ -3265,7 +3280,7 @@
       </c>
       <c r="C28" s="100"/>
       <c r="D28" s="100" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E28" s="100"/>
       <c r="F28" s="100"/>
@@ -3274,7 +3289,7 @@
       <c r="I28" s="100"/>
       <c r="J28" s="100"/>
       <c r="K28" s="100" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L28" s="100"/>
       <c r="M28" s="100"/>
@@ -3283,7 +3298,7 @@
       <c r="P28" s="100"/>
       <c r="Q28" s="100"/>
       <c r="R28" s="100" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="S28" s="100"/>
       <c r="T28" s="100"/>
@@ -3302,7 +3317,7 @@
       <c r="AE28" s="100"/>
       <c r="AF28" s="100"/>
       <c r="AG28" s="100" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="AH28" s="100"/>
       <c r="AI28" s="100"/>
@@ -3335,13 +3350,11 @@
       <c r="BF28" s="101"/>
       <c r="BG28" s="101"/>
       <c r="BH28" s="101"/>
-      <c r="BI28" s="101"/>
-      <c r="BJ28" s="101" t="s">
+      <c r="BI28" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="BK28" s="101" t="s">
-        <v>48</v>
-      </c>
+      <c r="BJ28" s="101"/>
+      <c r="BK28" s="101"/>
       <c r="BL28" s="100" t="s">
         <v>81</v>
       </c>
@@ -3355,72 +3368,96 @@
     </row>
     <row r="29" spans="1:106" customHeight="1" ht="12.75" s="41" customFormat="1">
       <c r="A29" s="1"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="12"/>
-      <c r="V29" s="12"/>
-      <c r="W29" s="12"/>
-      <c r="X29" s="12"/>
-      <c r="Y29" s="12"/>
-      <c r="Z29" s="12"/>
-      <c r="AA29" s="12"/>
-      <c r="AB29" s="12"/>
-      <c r="AC29" s="12"/>
-      <c r="AD29" s="12"/>
-      <c r="AE29" s="12"/>
-      <c r="AF29" s="12"/>
-      <c r="AG29" s="12"/>
-      <c r="AH29" s="12"/>
-      <c r="AI29" s="12"/>
-      <c r="AJ29" s="12"/>
-      <c r="AK29" s="12"/>
-      <c r="AL29" s="12"/>
-      <c r="AM29" s="12"/>
-      <c r="AN29" s="12"/>
-      <c r="AO29" s="12"/>
-      <c r="AP29" s="12"/>
-      <c r="AQ29" s="12"/>
-      <c r="AR29" s="12"/>
-      <c r="AS29" s="12"/>
-      <c r="AT29" s="12"/>
-      <c r="AU29" s="12"/>
-      <c r="AV29" s="12"/>
-      <c r="AW29" s="12"/>
-      <c r="AX29" s="12"/>
-      <c r="AY29" s="12"/>
-      <c r="AZ29" s="12"/>
-      <c r="BA29" s="12"/>
-      <c r="BB29" s="12"/>
-      <c r="BC29" s="12"/>
-      <c r="BD29" s="12"/>
-      <c r="BE29" s="12"/>
-      <c r="BF29" s="12"/>
-      <c r="BG29" s="12"/>
-      <c r="BH29" s="12"/>
-      <c r="BI29" s="12"/>
-      <c r="BJ29" s="12"/>
-      <c r="BK29" s="12"/>
-      <c r="BL29" s="12"/>
-      <c r="BM29" s="12"/>
-      <c r="BN29" s="12"/>
-      <c r="BO29" s="31"/>
+      <c r="B29" s="100">
+        <v>9</v>
+      </c>
+      <c r="C29" s="100"/>
+      <c r="D29" s="100" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" s="100"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="100"/>
+      <c r="I29" s="100"/>
+      <c r="J29" s="100"/>
+      <c r="K29" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="L29" s="100"/>
+      <c r="M29" s="100"/>
+      <c r="N29" s="100"/>
+      <c r="O29" s="100"/>
+      <c r="P29" s="100"/>
+      <c r="Q29" s="100"/>
+      <c r="R29" s="100" t="s">
+        <v>46</v>
+      </c>
+      <c r="S29" s="100"/>
+      <c r="T29" s="100"/>
+      <c r="U29" s="100"/>
+      <c r="V29" s="100"/>
+      <c r="W29" s="100"/>
+      <c r="X29" s="100"/>
+      <c r="Y29" s="100" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z29" s="100"/>
+      <c r="AA29" s="100"/>
+      <c r="AB29" s="100"/>
+      <c r="AC29" s="100"/>
+      <c r="AD29" s="100"/>
+      <c r="AE29" s="100"/>
+      <c r="AF29" s="100"/>
+      <c r="AG29" s="100" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH29" s="100"/>
+      <c r="AI29" s="100"/>
+      <c r="AJ29" s="100"/>
+      <c r="AK29" s="100"/>
+      <c r="AL29" s="100"/>
+      <c r="AM29" s="100" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN29" s="100"/>
+      <c r="AO29" s="100"/>
+      <c r="AP29" s="100"/>
+      <c r="AQ29" s="100"/>
+      <c r="AR29" s="100"/>
+      <c r="AS29" s="100"/>
+      <c r="AT29" s="100" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU29" s="100"/>
+      <c r="AV29" s="100"/>
+      <c r="AW29" s="100"/>
+      <c r="AX29" s="100"/>
+      <c r="AY29" s="100"/>
+      <c r="AZ29" s="101"/>
+      <c r="BA29" s="101"/>
+      <c r="BB29" s="101"/>
+      <c r="BC29" s="101"/>
+      <c r="BD29" s="101"/>
+      <c r="BE29" s="101"/>
+      <c r="BF29" s="101"/>
+      <c r="BG29" s="101"/>
+      <c r="BH29" s="101"/>
+      <c r="BI29" s="101" t="s">
+        <v>48</v>
+      </c>
+      <c r="BJ29" s="101" t="s">
+        <v>48</v>
+      </c>
+      <c r="BK29" s="101" t="s">
+        <v>48</v>
+      </c>
+      <c r="BL29" s="100" t="s">
+        <v>85</v>
+      </c>
+      <c r="BM29" s="100"/>
+      <c r="BN29" s="100"/>
+      <c r="BO29" s="104"/>
       <c r="BP29" s="42"/>
       <c r="BQ29" s="42"/>
       <c r="BR29" s="42"/>
@@ -3524,69 +3561,65 @@
     </row>
     <row r="31" spans="1:106" customHeight="1" ht="12.75" s="13" customFormat="1">
       <c r="A31" s="1"/>
-      <c r="B31" s="105" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" s="100"/>
-      <c r="D31" s="100"/>
-      <c r="E31" s="100"/>
-      <c r="F31" s="100"/>
-      <c r="G31" s="100"/>
-      <c r="H31" s="100"/>
-      <c r="I31" s="100"/>
-      <c r="J31" s="100"/>
-      <c r="K31" s="100"/>
-      <c r="L31" s="100"/>
-      <c r="M31" s="100"/>
-      <c r="N31" s="100"/>
-      <c r="O31" s="100"/>
-      <c r="P31" s="100"/>
-      <c r="Q31" s="100"/>
-      <c r="R31" s="100"/>
-      <c r="S31" s="100"/>
-      <c r="T31" s="100"/>
-      <c r="U31" s="100"/>
-      <c r="V31" s="100"/>
-      <c r="W31" s="100"/>
-      <c r="X31" s="100"/>
-      <c r="Y31" s="100"/>
-      <c r="Z31" s="100"/>
-      <c r="AA31" s="100"/>
-      <c r="AB31" s="100"/>
-      <c r="AC31" s="100"/>
-      <c r="AD31" s="100"/>
-      <c r="AE31" s="100"/>
-      <c r="AF31" s="100"/>
-      <c r="AG31" s="100"/>
-      <c r="AH31" s="100"/>
-      <c r="AI31" s="100"/>
-      <c r="AJ31" s="100"/>
-      <c r="AK31" s="100"/>
-      <c r="AL31" s="100"/>
-      <c r="AM31" s="100"/>
-      <c r="AN31" s="100"/>
-      <c r="AO31" s="100"/>
-      <c r="AP31" s="100"/>
-      <c r="AQ31" s="100"/>
-      <c r="AR31" s="100"/>
-      <c r="AS31" s="100"/>
-      <c r="AT31" s="100"/>
-      <c r="AU31" s="100"/>
-      <c r="AV31" s="100"/>
-      <c r="AW31" s="100"/>
-      <c r="AX31" s="100"/>
-      <c r="AY31" s="100"/>
-      <c r="AZ31" s="100"/>
-      <c r="BA31" s="100"/>
-      <c r="BB31" s="106" t="s">
-        <v>83</v>
-      </c>
-      <c r="BC31" s="107"/>
-      <c r="BD31" s="107"/>
-      <c r="BE31" s="107"/>
-      <c r="BF31" s="107"/>
-      <c r="BG31" s="107"/>
-      <c r="BH31" s="107"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="12"/>
+      <c r="Y31" s="12"/>
+      <c r="Z31" s="12"/>
+      <c r="AA31" s="12"/>
+      <c r="AB31" s="12"/>
+      <c r="AC31" s="12"/>
+      <c r="AD31" s="12"/>
+      <c r="AE31" s="12"/>
+      <c r="AF31" s="12"/>
+      <c r="AG31" s="12"/>
+      <c r="AH31" s="12"/>
+      <c r="AI31" s="12"/>
+      <c r="AJ31" s="12"/>
+      <c r="AK31" s="12"/>
+      <c r="AL31" s="12"/>
+      <c r="AM31" s="12"/>
+      <c r="AN31" s="12"/>
+      <c r="AO31" s="12"/>
+      <c r="AP31" s="12"/>
+      <c r="AQ31" s="12"/>
+      <c r="AR31" s="12"/>
+      <c r="AS31" s="12"/>
+      <c r="AT31" s="12"/>
+      <c r="AU31" s="12"/>
+      <c r="AV31" s="12"/>
+      <c r="AW31" s="12"/>
+      <c r="AX31" s="12"/>
+      <c r="AY31" s="12"/>
+      <c r="AZ31" s="12"/>
+      <c r="BA31" s="12"/>
+      <c r="BB31" s="12"/>
+      <c r="BC31" s="12"/>
+      <c r="BD31" s="12"/>
+      <c r="BE31" s="12"/>
+      <c r="BF31" s="12"/>
+      <c r="BG31" s="12"/>
+      <c r="BH31" s="12"/>
       <c r="BI31" s="12"/>
       <c r="BJ31" s="12"/>
       <c r="BK31" s="12"/>
@@ -3596,7 +3629,9 @@
       <c r="BO31" s="40"/>
     </row>
     <row r="32" spans="1:106" customHeight="1" ht="12.75">
-      <c r="B32" s="100"/>
+      <c r="B32" s="106" t="s">
+        <v>86</v>
+      </c>
       <c r="C32" s="100"/>
       <c r="D32" s="100"/>
       <c r="E32" s="100"/>
@@ -3648,13 +3683,15 @@
       <c r="AY32" s="100"/>
       <c r="AZ32" s="100"/>
       <c r="BA32" s="100"/>
-      <c r="BB32" s="107"/>
-      <c r="BC32" s="107"/>
-      <c r="BD32" s="107"/>
-      <c r="BE32" s="107"/>
-      <c r="BF32" s="107"/>
-      <c r="BG32" s="107"/>
-      <c r="BH32" s="107"/>
+      <c r="BB32" s="107" t="s">
+        <v>87</v>
+      </c>
+      <c r="BC32" s="108"/>
+      <c r="BD32" s="108"/>
+      <c r="BE32" s="108"/>
+      <c r="BF32" s="108"/>
+      <c r="BG32" s="108"/>
+      <c r="BH32" s="108"/>
       <c r="BI32" s="12"/>
       <c r="BJ32" s="12"/>
       <c r="BK32" s="12"/>
@@ -3692,20 +3729,16 @@
       <c r="CQ32" s="1"/>
     </row>
     <row r="33" spans="1:106" customHeight="1" ht="12.75">
-      <c r="B33" s="106" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="107"/>
-      <c r="D33" s="107"/>
-      <c r="E33" s="107"/>
-      <c r="F33" s="107"/>
-      <c r="G33" s="107"/>
-      <c r="H33" s="107"/>
-      <c r="I33" s="107"/>
-      <c r="J33" s="107"/>
-      <c r="K33" s="105" t="s">
-        <v>26</v>
-      </c>
+      <c r="B33" s="100"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="100"/>
+      <c r="I33" s="100"/>
+      <c r="J33" s="100"/>
+      <c r="K33" s="100"/>
       <c r="L33" s="100"/>
       <c r="M33" s="100"/>
       <c r="N33" s="100"/>
@@ -3728,39 +3761,33 @@
       <c r="AE33" s="100"/>
       <c r="AF33" s="100"/>
       <c r="AG33" s="100"/>
-      <c r="AH33" s="106" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI33" s="107"/>
-      <c r="AJ33" s="107"/>
-      <c r="AK33" s="107"/>
-      <c r="AL33" s="107"/>
-      <c r="AM33" s="107"/>
-      <c r="AN33" s="107"/>
-      <c r="AO33" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="AP33" s="107"/>
-      <c r="AQ33" s="107"/>
-      <c r="AR33" s="107"/>
-      <c r="AS33" s="107"/>
-      <c r="AT33" s="107"/>
-      <c r="AU33" s="107"/>
-      <c r="AV33" s="106" t="s">
-        <v>84</v>
-      </c>
-      <c r="AW33" s="107"/>
-      <c r="AX33" s="107"/>
-      <c r="AY33" s="107"/>
-      <c r="AZ33" s="107"/>
-      <c r="BA33" s="107"/>
-      <c r="BB33" s="107"/>
-      <c r="BC33" s="107"/>
-      <c r="BD33" s="107"/>
-      <c r="BE33" s="107"/>
-      <c r="BF33" s="107"/>
-      <c r="BG33" s="107"/>
-      <c r="BH33" s="107"/>
+      <c r="AH33" s="100"/>
+      <c r="AI33" s="100"/>
+      <c r="AJ33" s="100"/>
+      <c r="AK33" s="100"/>
+      <c r="AL33" s="100"/>
+      <c r="AM33" s="100"/>
+      <c r="AN33" s="100"/>
+      <c r="AO33" s="100"/>
+      <c r="AP33" s="100"/>
+      <c r="AQ33" s="100"/>
+      <c r="AR33" s="100"/>
+      <c r="AS33" s="100"/>
+      <c r="AT33" s="100"/>
+      <c r="AU33" s="100"/>
+      <c r="AV33" s="100"/>
+      <c r="AW33" s="100"/>
+      <c r="AX33" s="100"/>
+      <c r="AY33" s="100"/>
+      <c r="AZ33" s="100"/>
+      <c r="BA33" s="100"/>
+      <c r="BB33" s="108"/>
+      <c r="BC33" s="108"/>
+      <c r="BD33" s="108"/>
+      <c r="BE33" s="108"/>
+      <c r="BF33" s="108"/>
+      <c r="BG33" s="108"/>
+      <c r="BH33" s="108"/>
       <c r="BI33" s="12"/>
       <c r="BJ33" s="12"/>
       <c r="BK33" s="12"/>
@@ -3810,76 +3837,82 @@
     </row>
     <row r="34" spans="1:106" customHeight="1" ht="12.75">
       <c r="A34" s="18"/>
-      <c r="B34" s="110"/>
-      <c r="C34" s="110"/>
-      <c r="D34" s="110"/>
-      <c r="E34" s="110"/>
-      <c r="F34" s="110"/>
-      <c r="G34" s="110"/>
-      <c r="H34" s="110"/>
-      <c r="I34" s="110"/>
-      <c r="J34" s="110"/>
+      <c r="B34" s="107" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="111"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="111"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="111"/>
+      <c r="H34" s="111"/>
+      <c r="I34" s="111"/>
+      <c r="J34" s="111"/>
       <c r="K34" s="106" t="s">
-        <v>85</v>
-      </c>
-      <c r="L34" s="110"/>
-      <c r="M34" s="110"/>
-      <c r="N34" s="110"/>
-      <c r="O34" s="110"/>
-      <c r="P34" s="110"/>
-      <c r="Q34" s="110"/>
-      <c r="R34" s="110"/>
-      <c r="S34" s="110"/>
-      <c r="T34" s="106" t="s">
-        <v>86</v>
-      </c>
-      <c r="U34" s="110"/>
-      <c r="V34" s="110"/>
-      <c r="W34" s="110"/>
-      <c r="X34" s="110"/>
-      <c r="Y34" s="110"/>
-      <c r="Z34" s="110"/>
-      <c r="AA34" s="110"/>
-      <c r="AB34" s="110"/>
-      <c r="AC34" s="110"/>
-      <c r="AD34" s="110"/>
-      <c r="AE34" s="110"/>
-      <c r="AF34" s="110"/>
-      <c r="AG34" s="110"/>
-      <c r="AH34" s="110"/>
-      <c r="AI34" s="110"/>
-      <c r="AJ34" s="110"/>
-      <c r="AK34" s="110"/>
-      <c r="AL34" s="110"/>
-      <c r="AM34" s="110"/>
-      <c r="AN34" s="110"/>
-      <c r="AO34" s="110"/>
-      <c r="AP34" s="110"/>
-      <c r="AQ34" s="110"/>
-      <c r="AR34" s="110"/>
-      <c r="AS34" s="110"/>
-      <c r="AT34" s="110"/>
-      <c r="AU34" s="110"/>
-      <c r="AV34" s="110"/>
-      <c r="AW34" s="110"/>
-      <c r="AX34" s="110"/>
-      <c r="AY34" s="110"/>
-      <c r="AZ34" s="110"/>
-      <c r="BA34" s="110"/>
-      <c r="BB34" s="110"/>
-      <c r="BC34" s="110"/>
-      <c r="BD34" s="110"/>
-      <c r="BE34" s="110"/>
-      <c r="BF34" s="110"/>
-      <c r="BG34" s="110"/>
-      <c r="BH34" s="110"/>
+        <v>26</v>
+      </c>
+      <c r="L34" s="104"/>
+      <c r="M34" s="104"/>
+      <c r="N34" s="104"/>
+      <c r="O34" s="104"/>
+      <c r="P34" s="104"/>
+      <c r="Q34" s="104"/>
+      <c r="R34" s="104"/>
+      <c r="S34" s="104"/>
+      <c r="T34" s="104"/>
+      <c r="U34" s="104"/>
+      <c r="V34" s="104"/>
+      <c r="W34" s="104"/>
+      <c r="X34" s="104"/>
+      <c r="Y34" s="104"/>
+      <c r="Z34" s="104"/>
+      <c r="AA34" s="104"/>
+      <c r="AB34" s="104"/>
+      <c r="AC34" s="104"/>
+      <c r="AD34" s="104"/>
+      <c r="AE34" s="104"/>
+      <c r="AF34" s="104"/>
+      <c r="AG34" s="104"/>
+      <c r="AH34" s="107" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI34" s="111"/>
+      <c r="AJ34" s="111"/>
+      <c r="AK34" s="111"/>
+      <c r="AL34" s="111"/>
+      <c r="AM34" s="111"/>
+      <c r="AN34" s="111"/>
+      <c r="AO34" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP34" s="111"/>
+      <c r="AQ34" s="111"/>
+      <c r="AR34" s="111"/>
+      <c r="AS34" s="111"/>
+      <c r="AT34" s="111"/>
+      <c r="AU34" s="111"/>
+      <c r="AV34" s="107" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW34" s="111"/>
+      <c r="AX34" s="111"/>
+      <c r="AY34" s="111"/>
+      <c r="AZ34" s="111"/>
+      <c r="BA34" s="111"/>
+      <c r="BB34" s="111"/>
+      <c r="BC34" s="111"/>
+      <c r="BD34" s="111"/>
+      <c r="BE34" s="111"/>
+      <c r="BF34" s="111"/>
+      <c r="BG34" s="111"/>
+      <c r="BH34" s="111"/>
       <c r="BI34" s="18"/>
       <c r="BJ34" s="18"/>
       <c r="BK34" s="18"/>
       <c r="BL34" s="18"/>
       <c r="BM34" s="18"/>
       <c r="BN34" s="18"/>
-      <c r="BO34" s="109"/>
+      <c r="BO34" s="110"/>
       <c r="BP34" s="31"/>
       <c r="BQ34" s="31"/>
       <c r="BR34" s="18"/>
@@ -3922,65 +3955,69 @@
     </row>
     <row r="35" spans="1:106" customHeight="1" ht="12.75">
       <c r="A35" s="18"/>
-      <c r="B35" s="107"/>
-      <c r="C35" s="107"/>
-      <c r="D35" s="107"/>
-      <c r="E35" s="107"/>
-      <c r="F35" s="107"/>
-      <c r="G35" s="107"/>
-      <c r="H35" s="107"/>
-      <c r="I35" s="107"/>
-      <c r="J35" s="107"/>
-      <c r="K35" s="107"/>
-      <c r="L35" s="107"/>
-      <c r="M35" s="107"/>
-      <c r="N35" s="107"/>
-      <c r="O35" s="107"/>
-      <c r="P35" s="107"/>
-      <c r="Q35" s="107"/>
-      <c r="R35" s="107"/>
-      <c r="S35" s="107"/>
-      <c r="T35" s="107"/>
-      <c r="U35" s="107"/>
-      <c r="V35" s="107"/>
-      <c r="W35" s="107"/>
-      <c r="X35" s="107"/>
-      <c r="Y35" s="107"/>
-      <c r="Z35" s="107"/>
-      <c r="AA35" s="107"/>
-      <c r="AB35" s="107"/>
-      <c r="AC35" s="107"/>
-      <c r="AD35" s="107"/>
-      <c r="AE35" s="107"/>
-      <c r="AF35" s="107"/>
-      <c r="AG35" s="107"/>
-      <c r="AH35" s="107"/>
-      <c r="AI35" s="107"/>
-      <c r="AJ35" s="107"/>
-      <c r="AK35" s="107"/>
-      <c r="AL35" s="107"/>
-      <c r="AM35" s="107"/>
-      <c r="AN35" s="107"/>
-      <c r="AO35" s="107"/>
-      <c r="AP35" s="107"/>
-      <c r="AQ35" s="107"/>
-      <c r="AR35" s="107"/>
-      <c r="AS35" s="107"/>
-      <c r="AT35" s="107"/>
-      <c r="AU35" s="107"/>
-      <c r="AV35" s="107"/>
-      <c r="AW35" s="107"/>
-      <c r="AX35" s="107"/>
-      <c r="AY35" s="107"/>
-      <c r="AZ35" s="107"/>
-      <c r="BA35" s="107"/>
-      <c r="BB35" s="107"/>
-      <c r="BC35" s="107"/>
-      <c r="BD35" s="107"/>
-      <c r="BE35" s="107"/>
-      <c r="BF35" s="107"/>
-      <c r="BG35" s="107"/>
-      <c r="BH35" s="107"/>
+      <c r="B35" s="108"/>
+      <c r="C35" s="108"/>
+      <c r="D35" s="108"/>
+      <c r="E35" s="108"/>
+      <c r="F35" s="108"/>
+      <c r="G35" s="108"/>
+      <c r="H35" s="108"/>
+      <c r="I35" s="108"/>
+      <c r="J35" s="108"/>
+      <c r="K35" s="107" t="s">
+        <v>89</v>
+      </c>
+      <c r="L35" s="108"/>
+      <c r="M35" s="108"/>
+      <c r="N35" s="108"/>
+      <c r="O35" s="108"/>
+      <c r="P35" s="108"/>
+      <c r="Q35" s="108"/>
+      <c r="R35" s="108"/>
+      <c r="S35" s="108"/>
+      <c r="T35" s="107" t="s">
+        <v>90</v>
+      </c>
+      <c r="U35" s="108"/>
+      <c r="V35" s="108"/>
+      <c r="W35" s="108"/>
+      <c r="X35" s="108"/>
+      <c r="Y35" s="108"/>
+      <c r="Z35" s="108"/>
+      <c r="AA35" s="108"/>
+      <c r="AB35" s="108"/>
+      <c r="AC35" s="108"/>
+      <c r="AD35" s="108"/>
+      <c r="AE35" s="108"/>
+      <c r="AF35" s="108"/>
+      <c r="AG35" s="108"/>
+      <c r="AH35" s="108"/>
+      <c r="AI35" s="108"/>
+      <c r="AJ35" s="108"/>
+      <c r="AK35" s="108"/>
+      <c r="AL35" s="108"/>
+      <c r="AM35" s="108"/>
+      <c r="AN35" s="108"/>
+      <c r="AO35" s="108"/>
+      <c r="AP35" s="108"/>
+      <c r="AQ35" s="108"/>
+      <c r="AR35" s="108"/>
+      <c r="AS35" s="108"/>
+      <c r="AT35" s="108"/>
+      <c r="AU35" s="108"/>
+      <c r="AV35" s="108"/>
+      <c r="AW35" s="108"/>
+      <c r="AX35" s="108"/>
+      <c r="AY35" s="108"/>
+      <c r="AZ35" s="108"/>
+      <c r="BA35" s="108"/>
+      <c r="BB35" s="108"/>
+      <c r="BC35" s="108"/>
+      <c r="BD35" s="108"/>
+      <c r="BE35" s="108"/>
+      <c r="BF35" s="108"/>
+      <c r="BG35" s="108"/>
+      <c r="BH35" s="108"/>
       <c r="BI35" s="12"/>
       <c r="BJ35" s="12"/>
       <c r="BK35" s="12"/>
@@ -4030,65 +4067,65 @@
     </row>
     <row r="36" spans="1:106" customHeight="1" ht="12.75">
       <c r="A36" s="12"/>
-      <c r="B36" s="107"/>
-      <c r="C36" s="107"/>
-      <c r="D36" s="107"/>
-      <c r="E36" s="107"/>
-      <c r="F36" s="107"/>
-      <c r="G36" s="107"/>
-      <c r="H36" s="107"/>
-      <c r="I36" s="107"/>
-      <c r="J36" s="107"/>
-      <c r="K36" s="107"/>
-      <c r="L36" s="107"/>
-      <c r="M36" s="107"/>
-      <c r="N36" s="107"/>
-      <c r="O36" s="107"/>
-      <c r="P36" s="107"/>
-      <c r="Q36" s="107"/>
-      <c r="R36" s="107"/>
-      <c r="S36" s="107"/>
-      <c r="T36" s="107"/>
-      <c r="U36" s="107"/>
-      <c r="V36" s="107"/>
-      <c r="W36" s="107"/>
-      <c r="X36" s="107"/>
-      <c r="Y36" s="107"/>
-      <c r="Z36" s="107"/>
-      <c r="AA36" s="107"/>
-      <c r="AB36" s="107"/>
-      <c r="AC36" s="107"/>
-      <c r="AD36" s="107"/>
-      <c r="AE36" s="107"/>
-      <c r="AF36" s="107"/>
-      <c r="AG36" s="107"/>
-      <c r="AH36" s="107"/>
-      <c r="AI36" s="107"/>
-      <c r="AJ36" s="107"/>
-      <c r="AK36" s="107"/>
-      <c r="AL36" s="107"/>
-      <c r="AM36" s="107"/>
-      <c r="AN36" s="107"/>
-      <c r="AO36" s="107"/>
-      <c r="AP36" s="107"/>
-      <c r="AQ36" s="107"/>
-      <c r="AR36" s="107"/>
-      <c r="AS36" s="107"/>
-      <c r="AT36" s="107"/>
-      <c r="AU36" s="107"/>
-      <c r="AV36" s="107"/>
-      <c r="AW36" s="107"/>
-      <c r="AX36" s="107"/>
-      <c r="AY36" s="107"/>
-      <c r="AZ36" s="107"/>
-      <c r="BA36" s="107"/>
-      <c r="BB36" s="107"/>
-      <c r="BC36" s="107"/>
-      <c r="BD36" s="107"/>
-      <c r="BE36" s="107"/>
-      <c r="BF36" s="107"/>
-      <c r="BG36" s="107"/>
-      <c r="BH36" s="107"/>
+      <c r="B36" s="108"/>
+      <c r="C36" s="108"/>
+      <c r="D36" s="108"/>
+      <c r="E36" s="108"/>
+      <c r="F36" s="108"/>
+      <c r="G36" s="108"/>
+      <c r="H36" s="108"/>
+      <c r="I36" s="108"/>
+      <c r="J36" s="108"/>
+      <c r="K36" s="108"/>
+      <c r="L36" s="108"/>
+      <c r="M36" s="108"/>
+      <c r="N36" s="108"/>
+      <c r="O36" s="108"/>
+      <c r="P36" s="108"/>
+      <c r="Q36" s="108"/>
+      <c r="R36" s="108"/>
+      <c r="S36" s="108"/>
+      <c r="T36" s="108"/>
+      <c r="U36" s="108"/>
+      <c r="V36" s="108"/>
+      <c r="W36" s="108"/>
+      <c r="X36" s="108"/>
+      <c r="Y36" s="108"/>
+      <c r="Z36" s="108"/>
+      <c r="AA36" s="108"/>
+      <c r="AB36" s="108"/>
+      <c r="AC36" s="108"/>
+      <c r="AD36" s="108"/>
+      <c r="AE36" s="108"/>
+      <c r="AF36" s="108"/>
+      <c r="AG36" s="108"/>
+      <c r="AH36" s="108"/>
+      <c r="AI36" s="108"/>
+      <c r="AJ36" s="108"/>
+      <c r="AK36" s="108"/>
+      <c r="AL36" s="108"/>
+      <c r="AM36" s="108"/>
+      <c r="AN36" s="108"/>
+      <c r="AO36" s="108"/>
+      <c r="AP36" s="108"/>
+      <c r="AQ36" s="108"/>
+      <c r="AR36" s="108"/>
+      <c r="AS36" s="108"/>
+      <c r="AT36" s="108"/>
+      <c r="AU36" s="108"/>
+      <c r="AV36" s="108"/>
+      <c r="AW36" s="108"/>
+      <c r="AX36" s="108"/>
+      <c r="AY36" s="108"/>
+      <c r="AZ36" s="108"/>
+      <c r="BA36" s="108"/>
+      <c r="BB36" s="108"/>
+      <c r="BC36" s="108"/>
+      <c r="BD36" s="108"/>
+      <c r="BE36" s="108"/>
+      <c r="BF36" s="108"/>
+      <c r="BG36" s="108"/>
+      <c r="BH36" s="108"/>
       <c r="BI36" s="12"/>
       <c r="BJ36" s="12"/>
       <c r="BK36" s="12"/>
@@ -4138,79 +4175,65 @@
     </row>
     <row r="37" spans="1:106" customHeight="1" ht="12.75">
       <c r="A37" s="12"/>
-      <c r="B37" s="100" t="s">
-        <v>87</v>
-      </c>
-      <c r="C37" s="100"/>
-      <c r="D37" s="100"/>
-      <c r="E37" s="100"/>
-      <c r="F37" s="100"/>
-      <c r="G37" s="100"/>
-      <c r="H37" s="100"/>
-      <c r="I37" s="100"/>
-      <c r="J37" s="100"/>
-      <c r="K37" s="100" t="s">
-        <v>88</v>
-      </c>
-      <c r="L37" s="100"/>
-      <c r="M37" s="100"/>
-      <c r="N37" s="100"/>
-      <c r="O37" s="100"/>
-      <c r="P37" s="100"/>
-      <c r="Q37" s="100"/>
-      <c r="R37" s="100"/>
-      <c r="S37" s="100"/>
-      <c r="T37" s="100" t="s">
-        <v>46</v>
-      </c>
-      <c r="U37" s="100"/>
-      <c r="V37" s="100"/>
-      <c r="W37" s="100"/>
-      <c r="X37" s="100"/>
-      <c r="Y37" s="100"/>
-      <c r="Z37" s="100"/>
-      <c r="AA37" s="100"/>
-      <c r="AB37" s="100"/>
-      <c r="AC37" s="100"/>
-      <c r="AD37" s="100"/>
-      <c r="AE37" s="100"/>
-      <c r="AF37" s="100"/>
-      <c r="AG37" s="100"/>
-      <c r="AH37" s="100" t="s">
-        <v>89</v>
-      </c>
-      <c r="AI37" s="100"/>
-      <c r="AJ37" s="100"/>
-      <c r="AK37" s="100"/>
-      <c r="AL37" s="100"/>
-      <c r="AM37" s="100"/>
-      <c r="AN37" s="100"/>
-      <c r="AO37" s="100" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP37" s="100"/>
-      <c r="AQ37" s="100"/>
-      <c r="AR37" s="100"/>
-      <c r="AS37" s="100"/>
-      <c r="AT37" s="100"/>
-      <c r="AU37" s="100"/>
-      <c r="AV37" s="100" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW37" s="100"/>
-      <c r="AX37" s="100"/>
-      <c r="AY37" s="100"/>
-      <c r="AZ37" s="100"/>
-      <c r="BA37" s="100"/>
-      <c r="BB37" s="100" t="s">
-        <v>90</v>
-      </c>
-      <c r="BC37" s="100"/>
-      <c r="BD37" s="100"/>
-      <c r="BE37" s="100"/>
-      <c r="BF37" s="100"/>
-      <c r="BG37" s="100"/>
-      <c r="BH37" s="100"/>
+      <c r="B37" s="108"/>
+      <c r="C37" s="108"/>
+      <c r="D37" s="108"/>
+      <c r="E37" s="108"/>
+      <c r="F37" s="108"/>
+      <c r="G37" s="108"/>
+      <c r="H37" s="108"/>
+      <c r="I37" s="108"/>
+      <c r="J37" s="108"/>
+      <c r="K37" s="108"/>
+      <c r="L37" s="108"/>
+      <c r="M37" s="108"/>
+      <c r="N37" s="108"/>
+      <c r="O37" s="108"/>
+      <c r="P37" s="108"/>
+      <c r="Q37" s="108"/>
+      <c r="R37" s="108"/>
+      <c r="S37" s="108"/>
+      <c r="T37" s="108"/>
+      <c r="U37" s="108"/>
+      <c r="V37" s="108"/>
+      <c r="W37" s="108"/>
+      <c r="X37" s="108"/>
+      <c r="Y37" s="108"/>
+      <c r="Z37" s="108"/>
+      <c r="AA37" s="108"/>
+      <c r="AB37" s="108"/>
+      <c r="AC37" s="108"/>
+      <c r="AD37" s="108"/>
+      <c r="AE37" s="108"/>
+      <c r="AF37" s="108"/>
+      <c r="AG37" s="108"/>
+      <c r="AH37" s="108"/>
+      <c r="AI37" s="108"/>
+      <c r="AJ37" s="108"/>
+      <c r="AK37" s="108"/>
+      <c r="AL37" s="108"/>
+      <c r="AM37" s="108"/>
+      <c r="AN37" s="108"/>
+      <c r="AO37" s="108"/>
+      <c r="AP37" s="108"/>
+      <c r="AQ37" s="108"/>
+      <c r="AR37" s="108"/>
+      <c r="AS37" s="108"/>
+      <c r="AT37" s="108"/>
+      <c r="AU37" s="108"/>
+      <c r="AV37" s="108"/>
+      <c r="AW37" s="108"/>
+      <c r="AX37" s="108"/>
+      <c r="AY37" s="108"/>
+      <c r="AZ37" s="108"/>
+      <c r="BA37" s="108"/>
+      <c r="BB37" s="108"/>
+      <c r="BC37" s="108"/>
+      <c r="BD37" s="108"/>
+      <c r="BE37" s="108"/>
+      <c r="BF37" s="108"/>
+      <c r="BG37" s="108"/>
+      <c r="BH37" s="108"/>
       <c r="BI37" s="12"/>
       <c r="BJ37" s="12"/>
       <c r="BK37" s="12"/>
@@ -4260,7 +4283,9 @@
     </row>
     <row r="38" spans="1:106" customHeight="1" ht="12.75" s="13" customFormat="1">
       <c r="A38" s="12"/>
-      <c r="B38" s="100"/>
+      <c r="B38" s="100" t="s">
+        <v>91</v>
+      </c>
       <c r="C38" s="100"/>
       <c r="D38" s="100"/>
       <c r="E38" s="100"/>
@@ -4269,7 +4294,9 @@
       <c r="H38" s="100"/>
       <c r="I38" s="100"/>
       <c r="J38" s="100"/>
-      <c r="K38" s="100"/>
+      <c r="K38" s="100" t="s">
+        <v>92</v>
+      </c>
       <c r="L38" s="100"/>
       <c r="M38" s="100"/>
       <c r="N38" s="100"/>
@@ -4278,7 +4305,9 @@
       <c r="Q38" s="100"/>
       <c r="R38" s="100"/>
       <c r="S38" s="100"/>
-      <c r="T38" s="100"/>
+      <c r="T38" s="100" t="s">
+        <v>46</v>
+      </c>
       <c r="U38" s="100"/>
       <c r="V38" s="100"/>
       <c r="W38" s="100"/>
@@ -4292,27 +4321,35 @@
       <c r="AE38" s="100"/>
       <c r="AF38" s="100"/>
       <c r="AG38" s="100"/>
-      <c r="AH38" s="100"/>
+      <c r="AH38" s="100" t="s">
+        <v>93</v>
+      </c>
       <c r="AI38" s="100"/>
       <c r="AJ38" s="100"/>
       <c r="AK38" s="100"/>
       <c r="AL38" s="100"/>
       <c r="AM38" s="100"/>
       <c r="AN38" s="100"/>
-      <c r="AO38" s="100"/>
+      <c r="AO38" s="100" t="s">
+        <v>46</v>
+      </c>
       <c r="AP38" s="100"/>
       <c r="AQ38" s="100"/>
       <c r="AR38" s="100"/>
       <c r="AS38" s="100"/>
       <c r="AT38" s="100"/>
       <c r="AU38" s="100"/>
-      <c r="AV38" s="100"/>
+      <c r="AV38" s="100" t="s">
+        <v>46</v>
+      </c>
       <c r="AW38" s="100"/>
       <c r="AX38" s="100"/>
       <c r="AY38" s="100"/>
       <c r="AZ38" s="100"/>
       <c r="BA38" s="100"/>
-      <c r="BB38" s="100"/>
+      <c r="BB38" s="100" t="s">
+        <v>94</v>
+      </c>
       <c r="BC38" s="100"/>
       <c r="BD38" s="100"/>
       <c r="BE38" s="100"/>
@@ -4368,65 +4405,65 @@
     </row>
     <row r="39" spans="1:106" customHeight="1" ht="12" s="18" customFormat="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12"/>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="12"/>
-      <c r="S39" s="12"/>
-      <c r="T39" s="12"/>
-      <c r="U39" s="12"/>
-      <c r="V39" s="12"/>
-      <c r="W39" s="12"/>
-      <c r="X39" s="12"/>
-      <c r="Y39" s="12"/>
-      <c r="Z39" s="12"/>
-      <c r="AA39" s="12"/>
-      <c r="AB39" s="12"/>
-      <c r="AC39" s="12"/>
-      <c r="AD39" s="12"/>
-      <c r="AE39" s="12"/>
-      <c r="AF39" s="12"/>
-      <c r="AG39" s="12"/>
-      <c r="AH39" s="12"/>
-      <c r="AI39" s="12"/>
-      <c r="AJ39" s="12"/>
-      <c r="AK39" s="12"/>
-      <c r="AL39" s="12"/>
-      <c r="AM39" s="12"/>
-      <c r="AN39" s="12"/>
-      <c r="AO39" s="12"/>
-      <c r="AP39" s="12"/>
-      <c r="AQ39" s="12"/>
-      <c r="AR39" s="12"/>
-      <c r="AS39" s="12"/>
-      <c r="AT39" s="12"/>
-      <c r="AU39" s="12"/>
-      <c r="AV39" s="12"/>
-      <c r="AW39" s="12"/>
-      <c r="AX39" s="12"/>
-      <c r="AY39" s="12"/>
-      <c r="AZ39" s="12"/>
-      <c r="BA39" s="12"/>
-      <c r="BB39" s="12"/>
-      <c r="BC39" s="12"/>
-      <c r="BD39" s="12"/>
-      <c r="BE39" s="12"/>
-      <c r="BF39" s="12"/>
-      <c r="BG39" s="12"/>
-      <c r="BH39" s="12"/>
+      <c r="B39" s="100"/>
+      <c r="C39" s="100"/>
+      <c r="D39" s="100"/>
+      <c r="E39" s="100"/>
+      <c r="F39" s="100"/>
+      <c r="G39" s="100"/>
+      <c r="H39" s="100"/>
+      <c r="I39" s="100"/>
+      <c r="J39" s="100"/>
+      <c r="K39" s="100"/>
+      <c r="L39" s="100"/>
+      <c r="M39" s="100"/>
+      <c r="N39" s="100"/>
+      <c r="O39" s="100"/>
+      <c r="P39" s="100"/>
+      <c r="Q39" s="100"/>
+      <c r="R39" s="100"/>
+      <c r="S39" s="100"/>
+      <c r="T39" s="100"/>
+      <c r="U39" s="100"/>
+      <c r="V39" s="100"/>
+      <c r="W39" s="100"/>
+      <c r="X39" s="100"/>
+      <c r="Y39" s="100"/>
+      <c r="Z39" s="100"/>
+      <c r="AA39" s="100"/>
+      <c r="AB39" s="100"/>
+      <c r="AC39" s="100"/>
+      <c r="AD39" s="100"/>
+      <c r="AE39" s="100"/>
+      <c r="AF39" s="100"/>
+      <c r="AG39" s="100"/>
+      <c r="AH39" s="100"/>
+      <c r="AI39" s="100"/>
+      <c r="AJ39" s="100"/>
+      <c r="AK39" s="100"/>
+      <c r="AL39" s="100"/>
+      <c r="AM39" s="100"/>
+      <c r="AN39" s="100"/>
+      <c r="AO39" s="100"/>
+      <c r="AP39" s="100"/>
+      <c r="AQ39" s="100"/>
+      <c r="AR39" s="100"/>
+      <c r="AS39" s="100"/>
+      <c r="AT39" s="100"/>
+      <c r="AU39" s="100"/>
+      <c r="AV39" s="100"/>
+      <c r="AW39" s="100"/>
+      <c r="AX39" s="100"/>
+      <c r="AY39" s="100"/>
+      <c r="AZ39" s="100"/>
+      <c r="BA39" s="100"/>
+      <c r="BB39" s="100"/>
+      <c r="BC39" s="100"/>
+      <c r="BD39" s="100"/>
+      <c r="BE39" s="100"/>
+      <c r="BF39" s="100"/>
+      <c r="BG39" s="100"/>
+      <c r="BH39" s="100"/>
       <c r="BI39" s="12"/>
       <c r="BJ39" s="12"/>
       <c r="BK39" s="12"/>
@@ -4493,54 +4530,52 @@
     <row r="41" spans="1:106" customHeight="1" ht="12">
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
-      <c r="D41" s="105" t="s">
-        <v>91</v>
-      </c>
-      <c r="E41" s="100"/>
-      <c r="F41" s="100"/>
-      <c r="G41" s="100"/>
-      <c r="H41" s="100"/>
-      <c r="I41" s="100"/>
-      <c r="J41" s="100"/>
-      <c r="K41" s="100"/>
-      <c r="L41" s="100"/>
-      <c r="M41" s="100"/>
-      <c r="N41" s="100"/>
-      <c r="O41" s="100"/>
-      <c r="P41" s="100"/>
-      <c r="Q41" s="100"/>
-      <c r="R41" s="100"/>
-      <c r="S41" s="100"/>
-      <c r="T41" s="100"/>
-      <c r="U41" s="100"/>
-      <c r="V41" s="100"/>
-      <c r="W41" s="100"/>
-      <c r="X41" s="100"/>
-      <c r="Y41" s="100"/>
-      <c r="Z41" s="100"/>
-      <c r="AA41" s="100"/>
-      <c r="AB41" s="100"/>
-      <c r="AC41" s="100"/>
-      <c r="AD41" s="100"/>
-      <c r="AE41" s="100"/>
-      <c r="AF41" s="100"/>
-      <c r="AG41" s="100"/>
-      <c r="AH41" s="100"/>
-      <c r="AI41" s="100"/>
-      <c r="AJ41" s="100"/>
-      <c r="AK41" s="100"/>
-      <c r="AL41" s="100"/>
-      <c r="AM41" s="100"/>
-      <c r="AN41" s="100"/>
-      <c r="AO41" s="100"/>
-      <c r="AP41" s="100"/>
-      <c r="AQ41" s="100"/>
-      <c r="AR41" s="100"/>
-      <c r="AS41" s="100"/>
-      <c r="AT41" s="100"/>
-      <c r="AU41" s="100"/>
-      <c r="AV41" s="100"/>
-      <c r="AW41" s="100"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="12"/>
+      <c r="X41" s="12"/>
+      <c r="Y41" s="12"/>
+      <c r="Z41" s="12"/>
+      <c r="AA41" s="12"/>
+      <c r="AB41" s="12"/>
+      <c r="AC41" s="12"/>
+      <c r="AD41" s="12"/>
+      <c r="AE41" s="12"/>
+      <c r="AF41" s="12"/>
+      <c r="AG41" s="12"/>
+      <c r="AH41" s="12"/>
+      <c r="AI41" s="12"/>
+      <c r="AJ41" s="12"/>
+      <c r="AK41" s="12"/>
+      <c r="AL41" s="12"/>
+      <c r="AM41" s="12"/>
+      <c r="AN41" s="12"/>
+      <c r="AO41" s="12"/>
+      <c r="AP41" s="12"/>
+      <c r="AQ41" s="12"/>
+      <c r="AR41" s="12"/>
+      <c r="AS41" s="12"/>
+      <c r="AT41" s="12"/>
+      <c r="AU41" s="12"/>
+      <c r="AV41" s="12"/>
+      <c r="AW41" s="12"/>
       <c r="AX41" s="12"/>
       <c r="AY41" s="12"/>
       <c r="AZ41" s="12"/>
@@ -4597,7 +4632,9 @@
     <row r="42" spans="1:106" customHeight="1" ht="12">
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
-      <c r="D42" s="100"/>
+      <c r="D42" s="106" t="s">
+        <v>95</v>
+      </c>
       <c r="E42" s="100"/>
       <c r="F42" s="100"/>
       <c r="G42" s="100"/>
@@ -4699,9 +4736,7 @@
     <row r="43" spans="1:106" customHeight="1" ht="12">
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
-      <c r="D43" s="105" t="s">
-        <v>92</v>
-      </c>
+      <c r="D43" s="100"/>
       <c r="E43" s="100"/>
       <c r="F43" s="100"/>
       <c r="G43" s="100"/>
@@ -4740,15 +4775,13 @@
       <c r="AN43" s="100"/>
       <c r="AO43" s="100"/>
       <c r="AP43" s="100"/>
-      <c r="AQ43" s="106" t="s">
-        <v>93</v>
-      </c>
-      <c r="AR43" s="107"/>
-      <c r="AS43" s="107"/>
-      <c r="AT43" s="107"/>
-      <c r="AU43" s="107"/>
-      <c r="AV43" s="107"/>
-      <c r="AW43" s="107"/>
+      <c r="AQ43" s="100"/>
+      <c r="AR43" s="100"/>
+      <c r="AS43" s="100"/>
+      <c r="AT43" s="100"/>
+      <c r="AU43" s="100"/>
+      <c r="AV43" s="100"/>
+      <c r="AW43" s="100"/>
       <c r="AX43" s="12"/>
       <c r="AY43" s="12"/>
       <c r="AZ43" s="12"/>
@@ -4801,63 +4834,55 @@
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="D44" s="106" t="s">
-        <v>25</v>
-      </c>
-      <c r="E44" s="107"/>
-      <c r="F44" s="107"/>
-      <c r="G44" s="107"/>
-      <c r="H44" s="107"/>
-      <c r="I44" s="107"/>
-      <c r="J44" s="107"/>
-      <c r="K44" s="106" t="s">
-        <v>26</v>
-      </c>
-      <c r="L44" s="107"/>
-      <c r="M44" s="107"/>
-      <c r="N44" s="107"/>
-      <c r="O44" s="107"/>
-      <c r="P44" s="107"/>
-      <c r="Q44" s="107"/>
-      <c r="R44" s="106" t="s">
-        <v>94</v>
-      </c>
-      <c r="S44" s="107"/>
-      <c r="T44" s="107"/>
-      <c r="U44" s="107"/>
-      <c r="V44" s="107"/>
-      <c r="W44" s="107"/>
-      <c r="X44" s="106" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y44" s="107"/>
-      <c r="Z44" s="107"/>
-      <c r="AA44" s="107"/>
-      <c r="AB44" s="107"/>
-      <c r="AC44" s="107"/>
-      <c r="AD44" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE44" s="107"/>
-      <c r="AF44" s="107"/>
-      <c r="AG44" s="107"/>
-      <c r="AH44" s="107"/>
-      <c r="AI44" s="107"/>
-      <c r="AJ44" s="106" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK44" s="107"/>
-      <c r="AL44" s="107"/>
-      <c r="AM44" s="107"/>
-      <c r="AN44" s="107"/>
-      <c r="AO44" s="107"/>
-      <c r="AP44" s="107"/>
-      <c r="AQ44" s="107"/>
-      <c r="AR44" s="107"/>
-      <c r="AS44" s="107"/>
-      <c r="AT44" s="107"/>
-      <c r="AU44" s="107"/>
-      <c r="AV44" s="107"/>
-      <c r="AW44" s="107"/>
+        <v>96</v>
+      </c>
+      <c r="E44" s="100"/>
+      <c r="F44" s="100"/>
+      <c r="G44" s="100"/>
+      <c r="H44" s="100"/>
+      <c r="I44" s="100"/>
+      <c r="J44" s="100"/>
+      <c r="K44" s="100"/>
+      <c r="L44" s="100"/>
+      <c r="M44" s="100"/>
+      <c r="N44" s="100"/>
+      <c r="O44" s="100"/>
+      <c r="P44" s="100"/>
+      <c r="Q44" s="100"/>
+      <c r="R44" s="100"/>
+      <c r="S44" s="100"/>
+      <c r="T44" s="100"/>
+      <c r="U44" s="100"/>
+      <c r="V44" s="100"/>
+      <c r="W44" s="100"/>
+      <c r="X44" s="100"/>
+      <c r="Y44" s="100"/>
+      <c r="Z44" s="100"/>
+      <c r="AA44" s="100"/>
+      <c r="AB44" s="100"/>
+      <c r="AC44" s="100"/>
+      <c r="AD44" s="100"/>
+      <c r="AE44" s="100"/>
+      <c r="AF44" s="100"/>
+      <c r="AG44" s="100"/>
+      <c r="AH44" s="100"/>
+      <c r="AI44" s="100"/>
+      <c r="AJ44" s="100"/>
+      <c r="AK44" s="100"/>
+      <c r="AL44" s="100"/>
+      <c r="AM44" s="100"/>
+      <c r="AN44" s="100"/>
+      <c r="AO44" s="100"/>
+      <c r="AP44" s="100"/>
+      <c r="AQ44" s="107" t="s">
+        <v>97</v>
+      </c>
+      <c r="AR44" s="108"/>
+      <c r="AS44" s="108"/>
+      <c r="AT44" s="108"/>
+      <c r="AU44" s="108"/>
+      <c r="AV44" s="108"/>
+      <c r="AW44" s="108"/>
       <c r="AX44" s="12"/>
       <c r="AY44" s="12"/>
       <c r="AZ44" s="12"/>
@@ -4909,52 +4934,64 @@
     <row r="45" spans="1:106" customHeight="1" ht="12">
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
-      <c r="D45" s="107"/>
-      <c r="E45" s="107"/>
-      <c r="F45" s="107"/>
-      <c r="G45" s="107"/>
-      <c r="H45" s="107"/>
-      <c r="I45" s="107"/>
-      <c r="J45" s="107"/>
-      <c r="K45" s="107"/>
-      <c r="L45" s="107"/>
-      <c r="M45" s="107"/>
-      <c r="N45" s="107"/>
-      <c r="O45" s="107"/>
-      <c r="P45" s="107"/>
-      <c r="Q45" s="107"/>
-      <c r="R45" s="107"/>
-      <c r="S45" s="107"/>
-      <c r="T45" s="107"/>
-      <c r="U45" s="107"/>
-      <c r="V45" s="107"/>
-      <c r="W45" s="107"/>
-      <c r="X45" s="107"/>
-      <c r="Y45" s="107"/>
-      <c r="Z45" s="107"/>
-      <c r="AA45" s="107"/>
-      <c r="AB45" s="107"/>
-      <c r="AC45" s="107"/>
-      <c r="AD45" s="107"/>
-      <c r="AE45" s="107"/>
-      <c r="AF45" s="107"/>
-      <c r="AG45" s="107"/>
-      <c r="AH45" s="107"/>
-      <c r="AI45" s="107"/>
-      <c r="AJ45" s="107"/>
-      <c r="AK45" s="107"/>
-      <c r="AL45" s="107"/>
-      <c r="AM45" s="107"/>
-      <c r="AN45" s="107"/>
-      <c r="AO45" s="107"/>
-      <c r="AP45" s="107"/>
-      <c r="AQ45" s="107"/>
-      <c r="AR45" s="107"/>
-      <c r="AS45" s="107"/>
-      <c r="AT45" s="107"/>
-      <c r="AU45" s="107"/>
-      <c r="AV45" s="107"/>
-      <c r="AW45" s="107"/>
+      <c r="D45" s="107" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" s="108"/>
+      <c r="F45" s="108"/>
+      <c r="G45" s="108"/>
+      <c r="H45" s="108"/>
+      <c r="I45" s="108"/>
+      <c r="J45" s="108"/>
+      <c r="K45" s="107" t="s">
+        <v>26</v>
+      </c>
+      <c r="L45" s="108"/>
+      <c r="M45" s="108"/>
+      <c r="N45" s="108"/>
+      <c r="O45" s="108"/>
+      <c r="P45" s="108"/>
+      <c r="Q45" s="108"/>
+      <c r="R45" s="107" t="s">
+        <v>98</v>
+      </c>
+      <c r="S45" s="108"/>
+      <c r="T45" s="108"/>
+      <c r="U45" s="108"/>
+      <c r="V45" s="108"/>
+      <c r="W45" s="108"/>
+      <c r="X45" s="107" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y45" s="108"/>
+      <c r="Z45" s="108"/>
+      <c r="AA45" s="108"/>
+      <c r="AB45" s="108"/>
+      <c r="AC45" s="108"/>
+      <c r="AD45" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE45" s="108"/>
+      <c r="AF45" s="108"/>
+      <c r="AG45" s="108"/>
+      <c r="AH45" s="108"/>
+      <c r="AI45" s="108"/>
+      <c r="AJ45" s="107" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK45" s="108"/>
+      <c r="AL45" s="108"/>
+      <c r="AM45" s="108"/>
+      <c r="AN45" s="108"/>
+      <c r="AO45" s="108"/>
+      <c r="AP45" s="108"/>
+      <c r="AQ45" s="108"/>
+      <c r="AR45" s="108"/>
+      <c r="AS45" s="108"/>
+      <c r="AT45" s="108"/>
+      <c r="AU45" s="108"/>
+      <c r="AV45" s="108"/>
+      <c r="AW45" s="108"/>
       <c r="AX45" s="12"/>
       <c r="AY45" s="12"/>
       <c r="AZ45" s="12"/>
@@ -5006,52 +5043,52 @@
     <row r="46" spans="1:106" customHeight="1" ht="12">
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
-      <c r="D46" s="107"/>
-      <c r="E46" s="107"/>
-      <c r="F46" s="107"/>
-      <c r="G46" s="107"/>
-      <c r="H46" s="107"/>
-      <c r="I46" s="107"/>
-      <c r="J46" s="107"/>
-      <c r="K46" s="107"/>
-      <c r="L46" s="107"/>
-      <c r="M46" s="107"/>
-      <c r="N46" s="107"/>
-      <c r="O46" s="107"/>
-      <c r="P46" s="107"/>
-      <c r="Q46" s="107"/>
-      <c r="R46" s="107"/>
-      <c r="S46" s="107"/>
-      <c r="T46" s="107"/>
-      <c r="U46" s="107"/>
-      <c r="V46" s="107"/>
-      <c r="W46" s="107"/>
-      <c r="X46" s="107"/>
-      <c r="Y46" s="107"/>
-      <c r="Z46" s="107"/>
-      <c r="AA46" s="107"/>
-      <c r="AB46" s="107"/>
-      <c r="AC46" s="107"/>
-      <c r="AD46" s="107"/>
-      <c r="AE46" s="107"/>
-      <c r="AF46" s="107"/>
-      <c r="AG46" s="107"/>
-      <c r="AH46" s="107"/>
-      <c r="AI46" s="107"/>
-      <c r="AJ46" s="107"/>
-      <c r="AK46" s="107"/>
-      <c r="AL46" s="107"/>
-      <c r="AM46" s="107"/>
-      <c r="AN46" s="107"/>
-      <c r="AO46" s="107"/>
-      <c r="AP46" s="107"/>
-      <c r="AQ46" s="107"/>
-      <c r="AR46" s="107"/>
-      <c r="AS46" s="107"/>
-      <c r="AT46" s="107"/>
-      <c r="AU46" s="107"/>
-      <c r="AV46" s="107"/>
-      <c r="AW46" s="107"/>
+      <c r="D46" s="108"/>
+      <c r="E46" s="108"/>
+      <c r="F46" s="108"/>
+      <c r="G46" s="108"/>
+      <c r="H46" s="108"/>
+      <c r="I46" s="108"/>
+      <c r="J46" s="108"/>
+      <c r="K46" s="108"/>
+      <c r="L46" s="108"/>
+      <c r="M46" s="108"/>
+      <c r="N46" s="108"/>
+      <c r="O46" s="108"/>
+      <c r="P46" s="108"/>
+      <c r="Q46" s="108"/>
+      <c r="R46" s="108"/>
+      <c r="S46" s="108"/>
+      <c r="T46" s="108"/>
+      <c r="U46" s="108"/>
+      <c r="V46" s="108"/>
+      <c r="W46" s="108"/>
+      <c r="X46" s="108"/>
+      <c r="Y46" s="108"/>
+      <c r="Z46" s="108"/>
+      <c r="AA46" s="108"/>
+      <c r="AB46" s="108"/>
+      <c r="AC46" s="108"/>
+      <c r="AD46" s="108"/>
+      <c r="AE46" s="108"/>
+      <c r="AF46" s="108"/>
+      <c r="AG46" s="108"/>
+      <c r="AH46" s="108"/>
+      <c r="AI46" s="108"/>
+      <c r="AJ46" s="108"/>
+      <c r="AK46" s="108"/>
+      <c r="AL46" s="108"/>
+      <c r="AM46" s="108"/>
+      <c r="AN46" s="108"/>
+      <c r="AO46" s="108"/>
+      <c r="AP46" s="108"/>
+      <c r="AQ46" s="108"/>
+      <c r="AR46" s="108"/>
+      <c r="AS46" s="108"/>
+      <c r="AT46" s="108"/>
+      <c r="AU46" s="108"/>
+      <c r="AV46" s="108"/>
+      <c r="AW46" s="108"/>
       <c r="AX46" s="12"/>
       <c r="AY46" s="12"/>
       <c r="AZ46" s="12"/>
@@ -5103,52 +5140,52 @@
     <row r="47" spans="1:106" customHeight="1" ht="12">
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
-      <c r="D47" s="107"/>
-      <c r="E47" s="107"/>
-      <c r="F47" s="107"/>
-      <c r="G47" s="107"/>
-      <c r="H47" s="107"/>
-      <c r="I47" s="107"/>
-      <c r="J47" s="107"/>
-      <c r="K47" s="107"/>
-      <c r="L47" s="107"/>
-      <c r="M47" s="107"/>
-      <c r="N47" s="107"/>
-      <c r="O47" s="107"/>
-      <c r="P47" s="107"/>
-      <c r="Q47" s="107"/>
-      <c r="R47" s="107"/>
-      <c r="S47" s="107"/>
-      <c r="T47" s="107"/>
-      <c r="U47" s="107"/>
-      <c r="V47" s="107"/>
-      <c r="W47" s="107"/>
-      <c r="X47" s="107"/>
-      <c r="Y47" s="107"/>
-      <c r="Z47" s="107"/>
-      <c r="AA47" s="107"/>
-      <c r="AB47" s="107"/>
-      <c r="AC47" s="107"/>
-      <c r="AD47" s="107"/>
-      <c r="AE47" s="107"/>
-      <c r="AF47" s="107"/>
-      <c r="AG47" s="107"/>
-      <c r="AH47" s="107"/>
-      <c r="AI47" s="107"/>
-      <c r="AJ47" s="107"/>
-      <c r="AK47" s="107"/>
-      <c r="AL47" s="107"/>
-      <c r="AM47" s="107"/>
-      <c r="AN47" s="107"/>
-      <c r="AO47" s="107"/>
-      <c r="AP47" s="107"/>
-      <c r="AQ47" s="107"/>
-      <c r="AR47" s="107"/>
-      <c r="AS47" s="107"/>
-      <c r="AT47" s="107"/>
-      <c r="AU47" s="107"/>
-      <c r="AV47" s="107"/>
-      <c r="AW47" s="107"/>
+      <c r="D47" s="108"/>
+      <c r="E47" s="108"/>
+      <c r="F47" s="108"/>
+      <c r="G47" s="108"/>
+      <c r="H47" s="108"/>
+      <c r="I47" s="108"/>
+      <c r="J47" s="108"/>
+      <c r="K47" s="108"/>
+      <c r="L47" s="108"/>
+      <c r="M47" s="108"/>
+      <c r="N47" s="108"/>
+      <c r="O47" s="108"/>
+      <c r="P47" s="108"/>
+      <c r="Q47" s="108"/>
+      <c r="R47" s="108"/>
+      <c r="S47" s="108"/>
+      <c r="T47" s="108"/>
+      <c r="U47" s="108"/>
+      <c r="V47" s="108"/>
+      <c r="W47" s="108"/>
+      <c r="X47" s="108"/>
+      <c r="Y47" s="108"/>
+      <c r="Z47" s="108"/>
+      <c r="AA47" s="108"/>
+      <c r="AB47" s="108"/>
+      <c r="AC47" s="108"/>
+      <c r="AD47" s="108"/>
+      <c r="AE47" s="108"/>
+      <c r="AF47" s="108"/>
+      <c r="AG47" s="108"/>
+      <c r="AH47" s="108"/>
+      <c r="AI47" s="108"/>
+      <c r="AJ47" s="108"/>
+      <c r="AK47" s="108"/>
+      <c r="AL47" s="108"/>
+      <c r="AM47" s="108"/>
+      <c r="AN47" s="108"/>
+      <c r="AO47" s="108"/>
+      <c r="AP47" s="108"/>
+      <c r="AQ47" s="108"/>
+      <c r="AR47" s="108"/>
+      <c r="AS47" s="108"/>
+      <c r="AT47" s="108"/>
+      <c r="AU47" s="108"/>
+      <c r="AV47" s="108"/>
+      <c r="AW47" s="108"/>
       <c r="AX47" s="12"/>
       <c r="AY47" s="12"/>
       <c r="AZ47" s="12"/>
@@ -5200,66 +5237,52 @@
     <row r="48" spans="1:106" customHeight="1" ht="12">
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
-      <c r="D48" s="100" t="s">
-        <v>96</v>
-      </c>
-      <c r="E48" s="100"/>
-      <c r="F48" s="100"/>
-      <c r="G48" s="100"/>
-      <c r="H48" s="100"/>
-      <c r="I48" s="100"/>
-      <c r="J48" s="100"/>
-      <c r="K48" s="100" t="s">
-        <v>97</v>
-      </c>
-      <c r="L48" s="100"/>
-      <c r="M48" s="100"/>
-      <c r="N48" s="100"/>
-      <c r="O48" s="100"/>
-      <c r="P48" s="100"/>
-      <c r="Q48" s="100"/>
-      <c r="R48" s="100" t="s">
-        <v>46</v>
-      </c>
-      <c r="S48" s="100"/>
-      <c r="T48" s="100"/>
-      <c r="U48" s="100"/>
-      <c r="V48" s="100"/>
-      <c r="W48" s="100"/>
-      <c r="X48" s="100" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y48" s="100"/>
-      <c r="Z48" s="100"/>
-      <c r="AA48" s="100"/>
-      <c r="AB48" s="100"/>
-      <c r="AC48" s="100"/>
-      <c r="AD48" s="100" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE48" s="100"/>
-      <c r="AF48" s="100"/>
-      <c r="AG48" s="100"/>
-      <c r="AH48" s="100"/>
-      <c r="AI48" s="100"/>
-      <c r="AJ48" s="100" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK48" s="100"/>
-      <c r="AL48" s="100"/>
-      <c r="AM48" s="100"/>
-      <c r="AN48" s="100"/>
-      <c r="AO48" s="100"/>
-      <c r="AP48" s="100"/>
-      <c r="AQ48" s="100">
-        <v>8</v>
-      </c>
-      <c r="AR48" s="100"/>
-      <c r="AS48" s="100"/>
-      <c r="AT48" s="100"/>
-      <c r="AU48" s="100"/>
-      <c r="AV48" s="100"/>
-      <c r="AW48" s="100"/>
+      <c r="D48" s="108"/>
+      <c r="E48" s="108"/>
+      <c r="F48" s="108"/>
+      <c r="G48" s="108"/>
+      <c r="H48" s="108"/>
+      <c r="I48" s="108"/>
+      <c r="J48" s="108"/>
+      <c r="K48" s="108"/>
+      <c r="L48" s="108"/>
+      <c r="M48" s="108"/>
+      <c r="N48" s="108"/>
+      <c r="O48" s="108"/>
+      <c r="P48" s="108"/>
+      <c r="Q48" s="108"/>
+      <c r="R48" s="108"/>
+      <c r="S48" s="108"/>
+      <c r="T48" s="108"/>
+      <c r="U48" s="108"/>
+      <c r="V48" s="108"/>
+      <c r="W48" s="108"/>
+      <c r="X48" s="108"/>
+      <c r="Y48" s="108"/>
+      <c r="Z48" s="108"/>
+      <c r="AA48" s="108"/>
+      <c r="AB48" s="108"/>
+      <c r="AC48" s="108"/>
+      <c r="AD48" s="108"/>
+      <c r="AE48" s="108"/>
+      <c r="AF48" s="108"/>
+      <c r="AG48" s="108"/>
+      <c r="AH48" s="108"/>
+      <c r="AI48" s="108"/>
+      <c r="AJ48" s="108"/>
+      <c r="AK48" s="108"/>
+      <c r="AL48" s="108"/>
+      <c r="AM48" s="108"/>
+      <c r="AN48" s="108"/>
+      <c r="AO48" s="108"/>
+      <c r="AP48" s="108"/>
+      <c r="AQ48" s="108"/>
+      <c r="AR48" s="108"/>
+      <c r="AS48" s="108"/>
+      <c r="AT48" s="108"/>
+      <c r="AU48" s="108"/>
+      <c r="AV48" s="108"/>
+      <c r="AW48" s="108"/>
       <c r="AX48" s="12"/>
       <c r="AY48" s="12"/>
       <c r="AZ48" s="12"/>
@@ -5311,52 +5334,66 @@
     <row r="49" spans="1:106" customHeight="1" ht="12">
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="12"/>
-      <c r="N49" s="12"/>
-      <c r="O49" s="12"/>
-      <c r="P49" s="12"/>
-      <c r="Q49" s="12"/>
-      <c r="R49" s="12"/>
-      <c r="S49" s="12"/>
-      <c r="T49" s="12"/>
-      <c r="U49" s="12"/>
-      <c r="V49" s="12"/>
-      <c r="W49" s="12"/>
-      <c r="X49" s="12"/>
-      <c r="Y49" s="12"/>
-      <c r="Z49" s="12"/>
-      <c r="AA49" s="12"/>
-      <c r="AB49" s="12"/>
-      <c r="AC49" s="12"/>
-      <c r="AD49" s="12"/>
-      <c r="AE49" s="12"/>
-      <c r="AF49" s="12"/>
-      <c r="AG49" s="12"/>
-      <c r="AH49" s="12"/>
-      <c r="AI49" s="12"/>
-      <c r="AJ49" s="12"/>
-      <c r="AK49" s="12"/>
-      <c r="AL49" s="12"/>
-      <c r="AM49" s="12"/>
-      <c r="AN49" s="12"/>
-      <c r="AO49" s="12"/>
-      <c r="AP49" s="12"/>
-      <c r="AQ49" s="12"/>
-      <c r="AR49" s="12"/>
-      <c r="AS49" s="12"/>
-      <c r="AT49" s="12"/>
-      <c r="AU49" s="12"/>
-      <c r="AV49" s="12"/>
-      <c r="AW49" s="12"/>
+      <c r="D49" s="100" t="s">
+        <v>100</v>
+      </c>
+      <c r="E49" s="100"/>
+      <c r="F49" s="100"/>
+      <c r="G49" s="100"/>
+      <c r="H49" s="100"/>
+      <c r="I49" s="100"/>
+      <c r="J49" s="100"/>
+      <c r="K49" s="100" t="s">
+        <v>101</v>
+      </c>
+      <c r="L49" s="100"/>
+      <c r="M49" s="100"/>
+      <c r="N49" s="100"/>
+      <c r="O49" s="100"/>
+      <c r="P49" s="100"/>
+      <c r="Q49" s="100"/>
+      <c r="R49" s="100" t="s">
+        <v>46</v>
+      </c>
+      <c r="S49" s="100"/>
+      <c r="T49" s="100"/>
+      <c r="U49" s="100"/>
+      <c r="V49" s="100"/>
+      <c r="W49" s="100"/>
+      <c r="X49" s="100" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y49" s="100"/>
+      <c r="Z49" s="100"/>
+      <c r="AA49" s="100"/>
+      <c r="AB49" s="100"/>
+      <c r="AC49" s="100"/>
+      <c r="AD49" s="100" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE49" s="100"/>
+      <c r="AF49" s="100"/>
+      <c r="AG49" s="100"/>
+      <c r="AH49" s="100"/>
+      <c r="AI49" s="100"/>
+      <c r="AJ49" s="100" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK49" s="100"/>
+      <c r="AL49" s="100"/>
+      <c r="AM49" s="100"/>
+      <c r="AN49" s="100"/>
+      <c r="AO49" s="100"/>
+      <c r="AP49" s="100"/>
+      <c r="AQ49" s="100">
+        <v>9</v>
+      </c>
+      <c r="AR49" s="100"/>
+      <c r="AS49" s="100"/>
+      <c r="AT49" s="100"/>
+      <c r="AU49" s="100"/>
+      <c r="AV49" s="100"/>
+      <c r="AW49" s="100"/>
       <c r="AX49" s="12"/>
       <c r="AY49" s="12"/>
       <c r="AZ49" s="12"/>
@@ -5406,67 +5443,65 @@
       <c r="CR49" s="12"/>
     </row>
     <row r="50" spans="1:106" customHeight="1" ht="12">
-      <c r="B50" s="104" t="s">
-        <v>99</v>
-      </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
-      <c r="O50" s="6"/>
-      <c r="P50" s="6"/>
-      <c r="Q50" s="6"/>
-      <c r="R50" s="6"/>
-      <c r="S50" s="6"/>
-      <c r="T50" s="6"/>
-      <c r="U50" s="6"/>
-      <c r="V50" s="6"/>
-      <c r="W50" s="6"/>
-      <c r="X50" s="6"/>
-      <c r="Y50" s="6"/>
-      <c r="Z50" s="6"/>
-      <c r="AA50" s="6"/>
-      <c r="AB50" s="6"/>
-      <c r="AC50" s="6"/>
-      <c r="AD50" s="6"/>
-      <c r="AE50" s="6"/>
-      <c r="AF50" s="6"/>
-      <c r="AG50" s="6"/>
-      <c r="AH50" s="6"/>
-      <c r="AI50" s="6"/>
-      <c r="AJ50" s="6"/>
-      <c r="AK50" s="6"/>
-      <c r="AL50" s="6"/>
-      <c r="AM50" s="6"/>
-      <c r="AN50" s="6"/>
-      <c r="AO50" s="6"/>
-      <c r="AP50" s="6"/>
-      <c r="AQ50" s="6"/>
-      <c r="AR50" s="6"/>
-      <c r="AS50" s="6"/>
-      <c r="AT50" s="6"/>
-      <c r="AU50" s="6"/>
-      <c r="AV50" s="6"/>
-      <c r="AW50" s="6"/>
-      <c r="AX50" s="6"/>
-      <c r="AY50" s="6"/>
-      <c r="AZ50" s="6"/>
-      <c r="BA50" s="6"/>
-      <c r="BB50" s="6"/>
-      <c r="BC50" s="6"/>
-      <c r="BD50" s="6"/>
-      <c r="BE50" s="6"/>
-      <c r="BF50" s="6"/>
-      <c r="BG50" s="6"/>
-      <c r="BH50" s="6"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="12"/>
+      <c r="S50" s="12"/>
+      <c r="T50" s="12"/>
+      <c r="U50" s="12"/>
+      <c r="V50" s="12"/>
+      <c r="W50" s="12"/>
+      <c r="X50" s="12"/>
+      <c r="Y50" s="12"/>
+      <c r="Z50" s="12"/>
+      <c r="AA50" s="12"/>
+      <c r="AB50" s="12"/>
+      <c r="AC50" s="12"/>
+      <c r="AD50" s="12"/>
+      <c r="AE50" s="12"/>
+      <c r="AF50" s="12"/>
+      <c r="AG50" s="12"/>
+      <c r="AH50" s="12"/>
+      <c r="AI50" s="12"/>
+      <c r="AJ50" s="12"/>
+      <c r="AK50" s="12"/>
+      <c r="AL50" s="12"/>
+      <c r="AM50" s="12"/>
+      <c r="AN50" s="12"/>
+      <c r="AO50" s="12"/>
+      <c r="AP50" s="12"/>
+      <c r="AQ50" s="12"/>
+      <c r="AR50" s="12"/>
+      <c r="AS50" s="12"/>
+      <c r="AT50" s="12"/>
+      <c r="AU50" s="12"/>
+      <c r="AV50" s="12"/>
+      <c r="AW50" s="12"/>
+      <c r="AX50" s="12"/>
+      <c r="AY50" s="12"/>
+      <c r="AZ50" s="12"/>
+      <c r="BA50" s="12"/>
+      <c r="BB50" s="12"/>
+      <c r="BC50" s="12"/>
+      <c r="BD50" s="12"/>
+      <c r="BE50" s="12"/>
+      <c r="BF50" s="12"/>
+      <c r="BG50" s="12"/>
+      <c r="BH50" s="12"/>
       <c r="BI50" s="12"/>
       <c r="BJ50" s="12"/>
       <c r="BK50" s="12"/>
@@ -5505,65 +5540,67 @@
       <c r="CR50" s="12"/>
     </row>
     <row r="51" spans="1:106" customHeight="1" ht="12">
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="12"/>
-      <c r="O51" s="12"/>
-      <c r="P51" s="12"/>
-      <c r="Q51" s="12"/>
-      <c r="R51" s="12"/>
-      <c r="S51" s="12"/>
-      <c r="T51" s="12"/>
-      <c r="U51" s="12"/>
-      <c r="V51" s="12"/>
-      <c r="W51" s="12"/>
-      <c r="X51" s="12"/>
-      <c r="Y51" s="12"/>
-      <c r="Z51" s="12"/>
-      <c r="AA51" s="12"/>
-      <c r="AB51" s="12"/>
-      <c r="AC51" s="12"/>
-      <c r="AD51" s="12"/>
-      <c r="AE51" s="12"/>
-      <c r="AF51" s="12"/>
-      <c r="AG51" s="12"/>
-      <c r="AH51" s="12"/>
-      <c r="AI51" s="12"/>
-      <c r="AJ51" s="12"/>
-      <c r="AK51" s="12"/>
-      <c r="AL51" s="12"/>
-      <c r="AM51" s="12"/>
-      <c r="AN51" s="12"/>
-      <c r="AO51" s="12"/>
-      <c r="AP51" s="12"/>
-      <c r="AQ51" s="12"/>
-      <c r="AR51" s="12"/>
-      <c r="AS51" s="12"/>
-      <c r="AT51" s="12"/>
-      <c r="AU51" s="12"/>
-      <c r="AV51" s="12"/>
-      <c r="AW51" s="12"/>
-      <c r="AX51" s="12"/>
-      <c r="AY51" s="12"/>
-      <c r="AZ51" s="12"/>
-      <c r="BA51" s="12"/>
-      <c r="BB51" s="12"/>
-      <c r="BC51" s="12"/>
-      <c r="BD51" s="12"/>
-      <c r="BE51" s="12"/>
-      <c r="BF51" s="12"/>
-      <c r="BG51" s="12"/>
-      <c r="BH51" s="12"/>
+      <c r="B51" s="105" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6"/>
+      <c r="U51" s="6"/>
+      <c r="V51" s="6"/>
+      <c r="W51" s="6"/>
+      <c r="X51" s="6"/>
+      <c r="Y51" s="6"/>
+      <c r="Z51" s="6"/>
+      <c r="AA51" s="6"/>
+      <c r="AB51" s="6"/>
+      <c r="AC51" s="6"/>
+      <c r="AD51" s="6"/>
+      <c r="AE51" s="6"/>
+      <c r="AF51" s="6"/>
+      <c r="AG51" s="6"/>
+      <c r="AH51" s="6"/>
+      <c r="AI51" s="6"/>
+      <c r="AJ51" s="6"/>
+      <c r="AK51" s="6"/>
+      <c r="AL51" s="6"/>
+      <c r="AM51" s="6"/>
+      <c r="AN51" s="6"/>
+      <c r="AO51" s="6"/>
+      <c r="AP51" s="6"/>
+      <c r="AQ51" s="6"/>
+      <c r="AR51" s="6"/>
+      <c r="AS51" s="6"/>
+      <c r="AT51" s="6"/>
+      <c r="AU51" s="6"/>
+      <c r="AV51" s="6"/>
+      <c r="AW51" s="6"/>
+      <c r="AX51" s="6"/>
+      <c r="AY51" s="6"/>
+      <c r="AZ51" s="6"/>
+      <c r="BA51" s="6"/>
+      <c r="BB51" s="6"/>
+      <c r="BC51" s="6"/>
+      <c r="BD51" s="6"/>
+      <c r="BE51" s="6"/>
+      <c r="BF51" s="6"/>
+      <c r="BG51" s="6"/>
+      <c r="BH51" s="6"/>
       <c r="BI51" s="12"/>
       <c r="BJ51" s="12"/>
       <c r="BK51" s="12"/>
@@ -5796,20 +5833,18 @@
       <c r="CR53" s="12"/>
     </row>
     <row r="54" spans="1:106" customHeight="1" ht="12">
-      <c r="B54" s="105" t="s">
-        <v>100</v>
-      </c>
-      <c r="C54" s="100"/>
-      <c r="D54" s="100"/>
-      <c r="E54" s="100"/>
-      <c r="F54" s="100"/>
-      <c r="G54" s="100"/>
-      <c r="H54" s="100"/>
-      <c r="I54" s="100"/>
-      <c r="J54" s="100"/>
-      <c r="K54" s="100"/>
-      <c r="L54" s="100"/>
-      <c r="M54" s="100"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
       <c r="N54" s="12"/>
       <c r="O54" s="12"/>
       <c r="P54" s="12"/>
@@ -5895,8 +5930,8 @@
       <c r="CR54" s="12"/>
     </row>
     <row r="55" spans="1:106" customHeight="1" ht="12">
-      <c r="B55" s="108" t="s">
-        <v>43</v>
+      <c r="B55" s="106" t="s">
+        <v>104</v>
       </c>
       <c r="C55" s="100"/>
       <c r="D55" s="100"/>
@@ -5994,18 +6029,20 @@
       <c r="CR55" s="12"/>
     </row>
     <row r="56" spans="1:106" customHeight="1" ht="12">
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="12"/>
-      <c r="M56" s="12"/>
+      <c r="B56" s="109" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" s="100"/>
+      <c r="D56" s="100"/>
+      <c r="E56" s="100"/>
+      <c r="F56" s="100"/>
+      <c r="G56" s="100"/>
+      <c r="H56" s="100"/>
+      <c r="I56" s="100"/>
+      <c r="J56" s="100"/>
+      <c r="K56" s="100"/>
+      <c r="L56" s="100"/>
+      <c r="M56" s="100"/>
       <c r="N56" s="12"/>
       <c r="O56" s="12"/>
       <c r="P56" s="12"/>
@@ -10975,41 +11012,50 @@
     <mergeCell ref="AM28:AS28"/>
     <mergeCell ref="AT28:AY28"/>
     <mergeCell ref="BL28:BO28"/>
-    <mergeCell ref="B31:BA32"/>
-    <mergeCell ref="BB31:BH36"/>
-    <mergeCell ref="B33:J36"/>
-    <mergeCell ref="K33:AG33"/>
-    <mergeCell ref="AH33:AN36"/>
-    <mergeCell ref="AO33:AU36"/>
-    <mergeCell ref="AV33:BA36"/>
-    <mergeCell ref="K34:S36"/>
-    <mergeCell ref="T34:AG36"/>
-    <mergeCell ref="B37:J38"/>
-    <mergeCell ref="K37:S38"/>
-    <mergeCell ref="T37:AG38"/>
-    <mergeCell ref="AH37:AN38"/>
-    <mergeCell ref="AO37:AU38"/>
-    <mergeCell ref="AV37:BA38"/>
-    <mergeCell ref="BB37:BH38"/>
-    <mergeCell ref="D41:AW42"/>
-    <mergeCell ref="D43:AP43"/>
-    <mergeCell ref="AQ43:AW47"/>
-    <mergeCell ref="D44:J47"/>
-    <mergeCell ref="K44:Q47"/>
-    <mergeCell ref="R44:W47"/>
-    <mergeCell ref="X44:AC47"/>
-    <mergeCell ref="AD44:AI47"/>
-    <mergeCell ref="AJ44:AP47"/>
-    <mergeCell ref="D48:J48"/>
-    <mergeCell ref="K48:Q48"/>
-    <mergeCell ref="R48:W48"/>
-    <mergeCell ref="X48:AC48"/>
-    <mergeCell ref="AD48:AI48"/>
-    <mergeCell ref="AJ48:AP48"/>
-    <mergeCell ref="AQ48:AW48"/>
-    <mergeCell ref="B50:BH50"/>
-    <mergeCell ref="B54:M54"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:J29"/>
+    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="R29:X29"/>
+    <mergeCell ref="Y29:AF29"/>
+    <mergeCell ref="AG29:AL29"/>
+    <mergeCell ref="AM29:AS29"/>
+    <mergeCell ref="AT29:AY29"/>
+    <mergeCell ref="BL29:BO29"/>
+    <mergeCell ref="B32:BA33"/>
+    <mergeCell ref="BB32:BH37"/>
+    <mergeCell ref="B34:J37"/>
+    <mergeCell ref="K34:AG34"/>
+    <mergeCell ref="AH34:AN37"/>
+    <mergeCell ref="AO34:AU37"/>
+    <mergeCell ref="AV34:BA37"/>
+    <mergeCell ref="K35:S37"/>
+    <mergeCell ref="T35:AG37"/>
+    <mergeCell ref="B38:J39"/>
+    <mergeCell ref="K38:S39"/>
+    <mergeCell ref="T38:AG39"/>
+    <mergeCell ref="AH38:AN39"/>
+    <mergeCell ref="AO38:AU39"/>
+    <mergeCell ref="AV38:BA39"/>
+    <mergeCell ref="BB38:BH39"/>
+    <mergeCell ref="D42:AW43"/>
+    <mergeCell ref="D44:AP44"/>
+    <mergeCell ref="AQ44:AW48"/>
+    <mergeCell ref="D45:J48"/>
+    <mergeCell ref="K45:Q48"/>
+    <mergeCell ref="R45:W48"/>
+    <mergeCell ref="X45:AC48"/>
+    <mergeCell ref="AD45:AI48"/>
+    <mergeCell ref="AJ45:AP48"/>
+    <mergeCell ref="D49:J49"/>
+    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="R49:W49"/>
+    <mergeCell ref="X49:AC49"/>
+    <mergeCell ref="AD49:AI49"/>
+    <mergeCell ref="AJ49:AP49"/>
+    <mergeCell ref="AQ49:AW49"/>
+    <mergeCell ref="B51:BH51"/>
     <mergeCell ref="B55:M55"/>
+    <mergeCell ref="B56:M56"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.49" right="0.31" top="1" bottom="1" header="0" footer="0"/>
